--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ghrl-Gpr39.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ghrl-Gpr39.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.01504333333333</v>
+        <v>2.020378666666666</v>
       </c>
       <c r="H2">
-        <v>54.04512999999999</v>
+        <v>6.061135999999999</v>
       </c>
       <c r="I2">
-        <v>0.7619878539611529</v>
+        <v>0.2600911804892308</v>
       </c>
       <c r="J2">
-        <v>0.7619878539611528</v>
+        <v>0.2600911804892308</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.481497113588889</v>
+        <v>0.1661492069511111</v>
       </c>
       <c r="R2">
-        <v>13.3334740223</v>
+        <v>1.49534286256</v>
       </c>
       <c r="S2">
-        <v>0.7619878539611529</v>
+        <v>0.2600911804892308</v>
       </c>
       <c r="T2">
-        <v>0.7619878539611528</v>
+        <v>0.2600911804892308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>10.869407</v>
       </c>
       <c r="I3">
-        <v>0.153248888729851</v>
+        <v>0.4664203043534923</v>
       </c>
       <c r="J3">
-        <v>0.153248888729851</v>
+        <v>0.4664203043534922</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>0.2979546001077777</v>
       </c>
       <c r="R3">
-        <v>2.681591400969999</v>
+        <v>2.68159140097</v>
       </c>
       <c r="S3">
-        <v>0.153248888729851</v>
+        <v>0.4664203043534923</v>
       </c>
       <c r="T3">
-        <v>0.153248888729851</v>
+        <v>0.4664203043534922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.003987</v>
+        <v>2.124448666666666</v>
       </c>
       <c r="H4">
-        <v>6.011961</v>
+        <v>6.373346</v>
       </c>
       <c r="I4">
-        <v>0.08476325730899616</v>
+        <v>0.273488515157277</v>
       </c>
       <c r="J4">
-        <v>0.08476325730899614</v>
+        <v>0.273488515157277</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1648012109233333</v>
+        <v>0.1747075768511111</v>
       </c>
       <c r="R4">
-        <v>1.48321089831</v>
+        <v>1.57236819166</v>
       </c>
       <c r="S4">
-        <v>0.08476325730899616</v>
+        <v>0.273488515157277</v>
       </c>
       <c r="T4">
-        <v>0.08476325730899614</v>
+        <v>0.273488515157277</v>
       </c>
     </row>
   </sheetData>
